--- a/biology/Botanique/Jardin_botanique_de_Bordeaux/Jardin_botanique_de_Bordeaux.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Bordeaux/Jardin_botanique_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de Bordeaux, dans le département de la Gironde en France, est une institution à vocation scientifique destinée à faire découvrir à tous les publics le monde des plantes, la diversité, la nature et la gestion durable des ressources naturelles. C'est un espace de conservation et de préservation de ce patrimoine. Il est un lieu à vocation pédagogique et récréative, et un outil d'observation.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin botanique de Bordeaux est créé en 1629 sous le nom de « Jardin des plantes[1] ». Cet hortus medicus (« jardin médicinal »),  issu de la tradition médiévale, est un jardin des simples, où l'on cultive les plantes médicinales, condimentaires ou aromatiques. Il déménagera quatre fois. En 1750, il se retrouve rue du Jardin des plantes, à laquelle il donne son nom. En 1784, avec la vocation portuaire de Bordeaux, il devient centre d'acclimatation de plantes tropicales du monde entier. Au XIXe siècle, il prend le nom de Jardin botanique. Enfin, en 1856, il s'installe dans le jardin public de Bordeaux, profitant de vastes serres qui seront détruites en 1931. En 2001, le nouveau jardin est créé sur la rive droite de la Garonne, une première en France depuis vingt-cinq ans.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin botanique de Bordeaux est créé en 1629 sous le nom de « Jardin des plantes ». Cet hortus medicus (« jardin médicinal »),  issu de la tradition médiévale, est un jardin des simples, où l'on cultive les plantes médicinales, condimentaires ou aromatiques. Il déménagera quatre fois. En 1750, il se retrouve rue du Jardin des plantes, à laquelle il donne son nom. En 1784, avec la vocation portuaire de Bordeaux, il devient centre d'acclimatation de plantes tropicales du monde entier. Au XIXe siècle, il prend le nom de Jardin botanique. Enfin, en 1856, il s'installe dans le jardin public de Bordeaux, profitant de vastes serres qui seront détruites en 1931. En 2001, le nouveau jardin est créé sur la rive droite de la Garonne, une première en France depuis vingt-cinq ans.
 Il obtient le prix européen de Paysage Rosa Barba en 2003 et le prix Bâtiment culturel en 2007-2008 (concours « Habitat solaire, habitat d'aujourd'hui »). Il est également exposé en 2005 au Museum of Modern Art de New-York, qui vient de rouvrir.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Informer, éduquer, sensibiliser tous les publics à l'importance de la biodiversité et aux notions de développement durable : diffusion d'information scientifique et technique à l'aide d'outils de communication pédagogique (visites, ateliers, publications, expos, cours, TP...), formation spécialisée du personnel et perfectionnement des techniciens (échanges de personnel, accueil de stagiaires...), conseils de culture, lecture d'un paysage végétal, découverte des milieux naturels et leur mode de fonctionnement. Action particulière auprès des enfants.
 Faire connaître la réglementation internationale : le Jardin botanique de Bordeaux applique et fait connaître la Convention internationale de Washington ou CITES (Convention sur le commerce international des espèces de faunes et de flores sauvages menacées d'extinction), fait connaître la règlementation française et européenne pour la protection des espèces et de leur habitat (Directive habitat, liste d'espèces menacées, Zones Naturelles et d'Intérêt Écologique...) et explique en détail pourquoi il est indispensable de favoriser la biodiversité. Par l'intermédiaire des Jardins botaniques de France, il entretient une collaboration avec des réseaux internationaux : l'Union internationale pour la conservation de la nature (UICN), le Botanic Garden Conservation International (BGCI), l'Association internationale des jardins botaniques (IABG).
@@ -584,7 +600,9 @@
           <t>Deux jardins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un jardin historique sur un demi-hectare, où les végétaux sont présentés par famille selon l'ordre phylogénétique :
 espèces indigènes : les plantes médicinales pour lesquelles il a été créé,
@@ -625,9 +643,11 @@
           <t>Jardin de la mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le 12 mai 2019, une parcelle d'environ 70 m2 est dédiée aux plantes que récoltaient les esclaves africains dans le habitations coloniales[2]. On y trouve à la fois les plantes à rendement, cultivées pour le compte des maîtres, comme le coton, le café, l'indigo, le tabac, la canne à sucre ; mais aussi les plantes qui nourrissaient les captifs tels le maïs, la pomme de terre et le manioc. Le climat de Bordeaux ne permettant pas la culture de toutes les plantes, il manque des espèces comme le cacao, les épices (muscade, poivre, vanille…) et certains arbres fruitiers (goyavier).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 12 mai 2019, une parcelle d'environ 70 m2 est dédiée aux plantes que récoltaient les esclaves africains dans le habitations coloniales. On y trouve à la fois les plantes à rendement, cultivées pour le compte des maîtres, comme le coton, le café, l'indigo, le tabac, la canne à sucre ; mais aussi les plantes qui nourrissaient les captifs tels le maïs, la pomme de terre et le manioc. Le climat de Bordeaux ne permettant pas la culture de toutes les plantes, il manque des espèces comme le cacao, les épices (muscade, poivre, vanille…) et certains arbres fruitiers (goyavier).
 </t>
         </is>
       </c>
